--- a/jp.co.nri.nefs.tool.util/src/test/resources/Book1.xlsx
+++ b/jp.co.nri.nefs.tool.util/src/test/resources/Book1.xlsx
@@ -8,20 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\IdeaProjects\analysis\jp.co.nri.nefs.tool.util\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17495BAA-8025-4545-B6BB-A73F8B5C8F8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A21F05-D30A-4D42-8072-908882DC391E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="3140" windowWidth="14400" windowHeight="8260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3340" yWindow="3140" windowWidth="14400" windowHeight="8260" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet0" sheetId="1" r:id="rId2"/>
+    <sheet name="case2" sheetId="3" r:id="rId2"/>
+    <sheet name="case3" sheetId="4" r:id="rId3"/>
+    <sheet name="case4" sheetId="5" r:id="rId4"/>
+    <sheet name="case5" sheetId="1" r:id="rId5"/>
+    <sheet name="case6" sheetId="6" r:id="rId6"/>
+    <sheet name="case7" sheetId="7" r:id="rId7"/>
+    <sheet name="case8" sheetId="8" r:id="rId8"/>
+    <sheet name="case9" sheetId="9" r:id="rId9"/>
+    <sheet name="case10" sheetId="10" r:id="rId10"/>
+    <sheet name="case11" sheetId="11" r:id="rId11"/>
+    <sheet name="case12" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>p1</t>
   </si>
@@ -53,6 +63,14 @@
   </si>
   <si>
     <t>c2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -418,13 +436,195 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48834DD0-0FC7-4463-BB5B-96C2A81F1B0F}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6E843A-807B-433A-9B08-F1FDC30BD129}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BE89F1-878E-44E0-854E-2CDD4EAB26EF}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A185799-CCD6-4327-87CD-0063F8C95250}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6F412D-A0C0-4897-A4A6-226FCA3282EF}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B53279-2F70-49C6-8149-EEA0247D3C24}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2C418A-AC80-42DD-8544-1DED73737C9F}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -440,9 +640,77 @@
       <c r="E1" t="s">
         <v>7</v>
       </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
       <c r="F1">
         <v>3</v>
       </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -451,61 +719,103 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>0</v>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3137202-FC89-4BD6-8215-2D8AFA643731}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>7</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F1">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1">
-        <v>6</v>
-      </c>
-      <c r="M1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F662D72-75AA-41D5-A1CA-07C7E493B387}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E68D6C8-05BB-4FEE-ABF3-8C95352C124D}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E03B42-E3F1-477A-8291-FA0E3B0E719D}">
+  <dimension ref="B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>